--- a/biology/Botanique/Spermacoce_verticillata/Spermacoce_verticillata.xlsx
+++ b/biology/Botanique/Spermacoce_verticillata/Spermacoce_verticillata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spermacoce verticillata est une espèce de plantes dicotylédones de la famille des Rubiaceae, sous-famille des Rubioideae, originaire des régions tropicales d'Amérique. L'espèce a été introduite dans diverses régions tropicales d'Asie, d'Afrique de l'Ouest, du Pacifique et de l'Australie tropicale[2].
-Cette espèce est utilisée comme plante médicinale à diverses fins.  Par exemple, au Brésil, l'infusion des fleurs est utilisée comme antipyrétique et analgésique, les racines comme émétique et les feuilles comme antidiarrhéique et pour traiter l'érysipèle et les hémorroïdes. En Afrique, les extraits de feuilles sont utilisés pour traiter les affections lépreuses, les furoncles, les ulcères et les plaies gonorrhéiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spermacoce verticillata est une espèce de plantes dicotylédones de la famille des Rubiaceae, sous-famille des Rubioideae, originaire des régions tropicales d'Amérique. L'espèce a été introduite dans diverses régions tropicales d'Asie, d'Afrique de l'Ouest, du Pacifique et de l'Australie tropicale.
+Cette espèce est utilisée comme plante médicinale à diverses fins.  Par exemple, au Brésil, l'infusion des fleurs est utilisée comme antipyrétique et analgésique, les racines comme émétique et les feuilles comme antidiarrhéique et pour traiter l'érysipèle et les hémorroïdes. En Afrique, les extraits de feuilles sont utilisés pour traiter les affections lépreuses, les furoncles, les ulcères et les plaies gonorrhéiques.
 </t>
         </is>
       </c>
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (26 février 2022)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (26 février 2022) :
 Bigelovia verticillata (L.) Spreng.
 Borreria commutata Spreng.
 Borreria globularioides Cham. &amp; Schltdl.
@@ -527,7 +544,7 @@
 Borreria stricta G.Mey.
 Borreria thymocephala Griseb.
 Borreria verticillata (L.) G.Mey.
-Hedyotis verticillata Borreria verticillata (L.) G.Mey.[3]
+Hedyotis verticillata Borreria verticillata (L.) G.Mey.
 Spermacoce fruticosa Pohl ex DC.
 Spermacoce globosa Schumach. &amp; Thonn.
 Spermacoce hyssopifolia Pers.
@@ -538,7 +555,7 @@
 Spermacoce reclinata Nees
 Spermacoce stellata Willd. ex Roem. &amp; Schult.
 Spermacoce thymocephala (Griseb.) C.Wright
-Spermacoce verticillata[3]
+Spermacoce verticillata
 Tardavel verticillata (L.) Hiern
 </t>
         </is>
